--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3048400.056391878</v>
+        <v>-3050880.976217337</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>40.94106504740776</v>
       </c>
       <c r="H11" t="n">
-        <v>26.28428186160579</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104979</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717763</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>91.34198591836902</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>86.26051497487754</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443153</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.291691618487</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>113.6068875465488</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.28428186160574</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579951</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104979</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717758</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>88.44202534652099</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>86.26051497487859</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890424</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,10 +1850,10 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>307.9637310891334</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
         <v>337.0264424477344</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245749</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>229.6434154087739</v>
       </c>
       <c r="W17" t="n">
         <v>275.345685511694</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2062,10 +2062,10 @@
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258353</v>
       </c>
       <c r="X19" t="n">
-        <v>214.214066378282</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2090,13 +2090,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134330395</v>
       </c>
       <c r="H20" t="n">
-        <v>220.6411254041913</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2147,7 +2147,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365929215</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2299,7 +2299,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258353</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245659</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531835</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2384,7 +2384,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,10 +2530,10 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948569</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130718</v>
       </c>
       <c r="W25" t="n">
         <v>212.627715130872</v>
@@ -2609,7 +2609,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403079</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403084</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957279</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007071</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307958</v>
       </c>
       <c r="V35" t="n">
         <v>230.0675382420299</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70874824091553</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>164.0711673124582</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
         <v>230.0675382420299</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533747</v>
+        <v>68.34108803092319</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621575</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>196.6598613601174</v>
       </c>
       <c r="W40" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307976</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092315</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439386</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>239.4866237999601</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115157</v>
       </c>
       <c r="U44" t="n">
         <v>153.3104517307972</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>170.231873425326</v>
+        <v>170.2318734253261</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.306993957415</v>
+        <v>1139.306993957417</v>
       </c>
       <c r="C11" t="n">
-        <v>797.5365442767265</v>
+        <v>797.5365442767286</v>
       </c>
       <c r="D11" t="n">
-        <v>466.4629129296997</v>
+        <v>466.4629129297018</v>
       </c>
       <c r="E11" t="n">
-        <v>107.8667275911789</v>
+        <v>107.8667275911812</v>
       </c>
       <c r="F11" t="n">
-        <v>107.8667275911789</v>
+        <v>107.8667275911812</v>
       </c>
       <c r="G11" t="n">
-        <v>107.8667275911789</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299118</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039937</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489647</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479257</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477901</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.714766761813</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609361</v>
+        <v>418.3126375609359</v>
       </c>
       <c r="C13" t="n">
-        <v>326.0480053201593</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0480053201593</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0480053201593</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201593</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546019</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705057</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5224,7 +5224,7 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
         <v>1718.795353991585</v>
@@ -5242,7 +5242,7 @@
         <v>766.3695470152584</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.769035131452</v>
+        <v>572.7690351314519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1139.306993957415</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>797.5365442767265</v>
+        <v>797.5365442767281</v>
       </c>
       <c r="D14" t="n">
-        <v>466.4629129296997</v>
+        <v>466.4629129297014</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8667275911786</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="F14" t="n">
-        <v>107.8667275911786</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="G14" t="n">
-        <v>81.316947932991</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.316947932991</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489647</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479257</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477901</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.714766761813</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609368</v>
+        <v>418.3126375609361</v>
       </c>
       <c r="C16" t="n">
-        <v>276.5685218927536</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="D16" t="n">
-        <v>153.6439497401416</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E16" t="n">
-        <v>153.6439497401416</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>153.6439497401416</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5461,7 +5461,7 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
         <v>1718.795353991585</v>
@@ -5470,16 +5470,16 @@
         <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.167030653553</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152593</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314528</v>
+        <v>572.7690351314521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542004</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809389</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9592424104353</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8847665628258</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F17" t="n">
         <v>629.8847665628258</v>
@@ -5507,16 +5507,16 @@
         <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2747.768983550266</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219626</v>
+        <v>2469.642028487949</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166343</v>
+        <v>2170.817970434666</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398328</v>
+        <v>1855.320338666651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671187</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542003</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809388</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104346</v>
+        <v>940.9592424104333</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8126900199873</v>
+        <v>629.812690019986</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8126900199873</v>
+        <v>293.4684854381754</v>
       </c>
       <c r="G20" t="n">
-        <v>289.3819400727807</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166342</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398328</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,7 +5835,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671187</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324337</v>
@@ -5972,13 +5972,13 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349364</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5990,25 +5990,25 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.558850026899</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384077</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6017,13 +6017,13 @@
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
         <v>2788.465806734574</v>
@@ -6054,25 +6054,25 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>481.6929346574177</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782828</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881693</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634008</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259235</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524676</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647469</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,16 +6257,16 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6303,13 +6303,13 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6385,22 +6385,22 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524676</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913841</v>
@@ -6616,25 +6616,25 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
         <v>2189.856749167329</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524676</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,64 +6832,64 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464963</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307323</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6950,13 +6950,13 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,28 +7005,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.7336441225986</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685351</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300428</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205424</v>
+        <v>835.3471215411926</v>
       </c>
       <c r="X37" t="n">
-        <v>757.503253522525</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789949</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,34 +7157,34 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7196,22 +7196,22 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7242,28 +7242,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225987</v>
+        <v>402.2593958170919</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685352</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>332.0236909300429</v>
+        <v>280.5494426245362</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214932</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974263</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>978.8956707359727</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728555</v>
+        <v>934.0185561150356</v>
       </c>
       <c r="X40" t="n">
-        <v>658.8318189486815</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789949</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7391,70 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,28 +7479,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647787</v>
+        <v>444.8926667912276</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368718</v>
+        <v>374.6279184371641</v>
       </c>
       <c r="D43" t="n">
-        <v>280.549442624536</v>
+        <v>323.1827135986717</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159864</v>
+        <v>273.941054590122</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>225.7225416660551</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>156.6911396146174</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>109.1453874063186</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816216</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210196</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578153</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150354</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908615</v>
+        <v>748.662276191154</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211749</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7628,22 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912096</v>
@@ -7655,43 +7655,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,16 +7825,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
         <v>1422.082050758175</v>
@@ -7843,13 +7843,13 @@
         <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>877.9803925153276</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170185</v>
+        <v>804.7004397908621</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734884</v>
+        <v>583.907860647332</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430628</v>
+        <v>157.2353108430632</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729004</v>
+        <v>184.403943372901</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389599</v>
+        <v>191.4948909389607</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333062</v>
+        <v>181.085632533307</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830236</v>
+        <v>179.3553748830244</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383985</v>
+        <v>182.8301554383993</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586581</v>
+        <v>190.8908035586587</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266121</v>
+        <v>192.0103836266126</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.6031223372534</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.9629718672276</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253589</v>
+        <v>104.1013981253595</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677615</v>
+        <v>92.30246558677678</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359732</v>
+        <v>106.8829608359738</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798321</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085225</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784346</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>61.78301484554822</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>124.5185911550068</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550059</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431544</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550059</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-9.023892744153272e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>343.0605140189193</v>
       </c>
       <c r="H11" t="n">
-        <v>241.4033359385882</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.98468859313236</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
@@ -23428,13 +23428,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.57435335231682</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.4033359385866</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>357.7172972047213</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.25330108456494</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>52.84514669702315</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07135577740936583</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>24.21355985564202</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.052118313404</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07135577741020427</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1401407.928551662</v>
+        <v>1401407.928551661</v>
       </c>
     </row>
     <row r="8">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552346</v>
+        <v>59764.5536755225</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
         <v>25409.43302179692</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995424</v>
+        <v>421637.9387995427</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362517</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362517</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.43437506736</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.43437506734</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451313</v>
+        <v>88045.16093451307</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.52830184212</v>
@@ -26494,10 +26494,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475276.8499958204</v>
+        <v>-475281.2635736886</v>
       </c>
       <c r="C6" t="n">
-        <v>-475276.8499958205</v>
+        <v>-475281.2635736886</v>
       </c>
       <c r="D6" t="n">
-        <v>-516551.3979069322</v>
+        <v>-516555.7556570774</v>
       </c>
       <c r="E6" t="n">
-        <v>-1204612.736542083</v>
+        <v>-1204841.490964482</v>
       </c>
       <c r="F6" t="n">
-        <v>-115373.7643784516</v>
+        <v>-115602.5188008498</v>
       </c>
       <c r="G6" t="n">
-        <v>-193931.1867951563</v>
+        <v>-193997.4641667007</v>
       </c>
       <c r="H6" t="n">
-        <v>-156351.0775002823</v>
+        <v>-156417.3548718266</v>
       </c>
       <c r="I6" t="n">
         <v>-196603.1570661889</v>
       </c>
       <c r="J6" t="n">
-        <v>-199645.534098334</v>
+        <v>-199645.5340983339</v>
       </c>
       <c r="K6" t="n">
         <v>-174236.101076537</v>
       </c>
       <c r="L6" t="n">
-        <v>-211816.2103714111</v>
+        <v>-211816.210371411</v>
       </c>
       <c r="M6" t="n">
-        <v>-375650.7082871312</v>
+        <v>-375650.7082871313</v>
       </c>
       <c r="N6" t="n">
         <v>-173482.608294407</v>
       </c>
       <c r="O6" t="n">
-        <v>-173482.6082944071</v>
+        <v>-173482.6082944069</v>
       </c>
       <c r="P6" t="n">
-        <v>-173482.6082944069</v>
+        <v>-173482.608294407</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379072</v>
+        <v>69.78465283790608</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>917.22193528103</v>
@@ -26814,22 +26814,22 @@
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951246</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379072</v>
+        <v>69.78465283790608</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
         <v>97.11452592758451</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.228618466721</v>
+        <v>84.22861846672109</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987507</v>
+        <v>90.83829126987521</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519073</v>
+        <v>84.46220888519088</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990168</v>
+        <v>7.649035050990403</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317039</v>
+        <v>75.62456067317056</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712647</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075518</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075596</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075616</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859159</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859176</v>
       </c>
       <c r="M31" t="n">
         <v>46.97513661859258</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>46.72521440565365</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>55.47778196371104</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565355</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.47778196371064</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>54.14548214544423</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>46.72521440565282</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>55.47778196371115</v>
+        <v>55.47778196371104</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413353</v>
+        <v>0.2805413179413307</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366701</v>
+        <v>2.873093772366655</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993334</v>
+        <v>10.81556915993317</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362343</v>
+        <v>23.81059368362304</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208016</v>
+        <v>35.68590767207958</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310273</v>
+        <v>44.27152403102659</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396652</v>
+        <v>49.26060069396573</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356734</v>
+        <v>50.05768871356654</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328819</v>
+        <v>47.26805598328743</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661147</v>
+        <v>40.34219219661082</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783739</v>
+        <v>30.2953062478369</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313242</v>
+        <v>17.62255356313213</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588184</v>
+        <v>6.392835282588081</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288196</v>
+        <v>1.228069619288176</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530682</v>
+        <v>0.02244330543530646</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796495</v>
+        <v>0.150102838179647</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840299</v>
+        <v>1.449677410840276</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694072</v>
+        <v>5.168014384693989</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906943</v>
+        <v>14.1814264790692</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710594</v>
+        <v>24.23831663710555</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264713</v>
+        <v>32.59140791264661</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665942</v>
+        <v>38.03263579665881</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655716</v>
+        <v>39.03924649655654</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847124</v>
+        <v>35.71328360847067</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449815</v>
+        <v>28.66305863449769</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447596</v>
+        <v>19.16049562447565</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768063</v>
+        <v>9.319542882767914</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608838</v>
+        <v>2.788094384608793</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890254</v>
+        <v>0.6050197731890157</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345363</v>
+        <v>0.009875186722345204</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486851</v>
+        <v>0.1258411772486831</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811037</v>
+        <v>1.11884246681102</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307864</v>
+        <v>3.78438740307858</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482036</v>
+        <v>8.896971231481894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489268</v>
+        <v>14.62045677489245</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477269</v>
+        <v>18.7091510247724</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908252</v>
+        <v>19.7261765390822</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115562</v>
+        <v>19.25713215115531</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875052</v>
+        <v>17.78707839875023</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287733</v>
+        <v>15.21991838287708</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852399</v>
+        <v>10.53748257852382</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381785</v>
+        <v>5.658276933381694</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233903</v>
+        <v>2.193068516233867</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625635</v>
+        <v>0.5376850300625549</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356465</v>
+        <v>0.00686406421356454</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36136,7 +36136,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.7355412086614</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>569.8360157337672</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359774</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>632.5715920432258</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>685.7637716667631</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597774</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120754</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>416.1845670468738</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887899</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>477.3399348174792</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887901</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923321</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
